--- a/gd/其他/副本配置清单.xlsx
+++ b/gd/其他/副本配置清单.xlsx
@@ -1,163 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/其他/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4900" yWindow="460" windowWidth="26700" windowHeight="20000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="配置清单" sheetId="1" r:id="rId1"/>
+    <sheet name="分工汇总" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">配置清单!$A$2:$H$56</definedName>
+  </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="114">
   <si>
     <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>美术需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>instanceChapter</t>
   </si>
   <si>
     <t>章节ID、章节名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>满星奖励（普通、挑战）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>章节掉落（普通、挑战）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>章节开启等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>instanceDrop</t>
   </si>
   <si>
     <t>怪物掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>instanceEntry</t>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本ID、副本名称、章节索引等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值、可完成次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>怪物信息（头像、tips）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI背景装饰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>场景buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>美术需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>章节地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>美术需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>场景buff图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>副本项UI背景装饰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>instanceReward</t>
   </si>
   <si>
     <t>额外奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>扫荡奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>spell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>技能spell配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>技能effect配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>技能buff配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>animation</t>
@@ -167,197 +181,561 @@
   </si>
   <si>
     <t>配置项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>怪物ID、模型、头像、名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weakPointData</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleLevel</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>对局ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开场动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局数列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招技能动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招技能特效（施法、命中等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景导入（美术）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该章节中全部副本获得三星后可以开启的宝箱奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节中可能的掉落内容（用于显示）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物的掉落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本入口，阵容选择配置</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ru'kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属任务</t>
+    <rPh sb="0" eb="1">
+      <t>gui'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本奖励配置</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐音效配置</t>
+    <rPh sb="0" eb="1">
+      <t>yin'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物弱点配置</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景配置</t>
+    <rPh sb="0" eb="1">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本数值配置</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能配置</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>弱点列表、怪物描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weakPointData</t>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>弱点ID、弱点名称、弱点逻辑、状态、tips等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleLevel</t>
-  </si>
-  <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t>对局ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开场动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局数列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss对局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通技能动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通技能特效（施法、命中等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招技能动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招技能特效（施法、命中等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大bossAI配置</t>
+    <rPh sb="0" eb="1">
+      <t>da</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪bossAI配置</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>状态机生成与调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型碰撞核调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景导入（美术）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossAI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss弱点切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪boss技能AI</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'neng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大boss技能AI</t>
+    <rPh sb="0" eb="1">
+      <t>da</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss弱点切换（动画，AI）</t>
+    <rPh sb="9" eb="10">
+      <t>dong'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物大招攻击次数</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ci'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型碰撞盒调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能特效（施法、命中等）--通用技能特效不用重复配</t>
+    <rPh sb="16" eb="17">
+      <t>tong'yong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bu'yong</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>chogn'fu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>pei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪技能动作，特效配置</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'guai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能音效配置</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪boss技能动作，特效配置</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'guai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大boss技能动作，特效配置</t>
+    <rPh sb="0" eb="1">
+      <t>da</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪boss技能动作，特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大boss技能动作，特效</t>
+  </si>
+  <si>
+    <t>3fat</t>
+  </si>
+  <si>
+    <t>小怪AI（配置性格即可）</t>
+    <rPh sb="5" eb="6">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing'ge</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji'ke</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李</t>
+    <rPh sb="0" eb="1">
+      <t>lao'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <rPh sb="0" eb="1">
+      <t>pang'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不单发任务，结合到动作、特效配置里</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dan'fa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪，小怪boss，大boss技能配置</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao'guai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>da</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -388,6 +766,25 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,11 +806,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -718,23 +1125,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E52"/>
+  <dimension ref="A2:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="17.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="8.83203125" style="2"/>
+    <col min="6" max="6" width="51.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
@@ -742,13 +1152,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -761,24 +1180,59 @@
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C4" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C5" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -786,10 +1240,16 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
@@ -799,19 +1259,37 @@
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -824,8 +1302,14 @@
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
@@ -835,8 +1319,14 @@
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -846,8 +1336,14 @@
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
@@ -855,18 +1351,30 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
@@ -874,7 +1382,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
@@ -885,171 +1396,270 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C17" s="3" t="s">
+      <c r="G16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G21" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
       <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
       <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G26" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G27" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G28" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C31" s="3" t="s">
+      <c r="E30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1060,10 +1670,17 @@
         <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1074,10 +1691,16 @@
         <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1088,10 +1711,16 @@
         <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
@@ -1104,194 +1733,486 @@
       <c r="E35" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G35" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G36" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G37" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
       <c r="C39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
       <c r="C40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
       <c r="B41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="G52" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>1</v>
+      <c r="D56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A2:H56"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>